--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -501,7 +500,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,12 +575,11 @@
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -590,12 +588,10 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -604,10 +600,10 @@
       <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
@@ -632,12 +628,12 @@
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -500,7 +501,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,6 +577,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="5" t="s">
         <v>5</v>
@@ -588,6 +590,7 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="5" t="s">
         <v>5</v>
@@ -601,11 +604,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -614,10 +617,10 @@
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
